--- a/开发和测试过程数据统计对照表.xlsx
+++ b/开发和测试过程数据统计对照表.xlsx
@@ -1677,12 +1677,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据30%代码编写+20%文档书写+40%功能实现+10%实际表（组长评定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、根据任务统计表看出功能实现的贡献 2、根据github上commit记录可以看出代码编写部分的贡献 3、文档书写已经在总结文档中详细描述。4、实际表现由组长打分，根据成员平时在小规模讨论、正式会议、问题解决以及协同开发过程中的积极程度和提出有价值建议的情况决定。</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据30%代码编写+20%文档书写+30%功能实现+20%实际表（组长评定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2141,8 +2141,14 @@
     <xf numFmtId="176" fontId="19" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2158,12 +2164,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2470,7 +2470,7 @@
   <dimension ref="A1:Z201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:M7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
@@ -2493,23 +2493,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="22.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
       <c r="G1" s="25"/>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -2617,19 +2617,19 @@
       <c r="H4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="56">
+      <c r="I4" s="50">
         <v>0.3</v>
       </c>
-      <c r="J4" s="56">
+      <c r="J4" s="50">
         <v>0.25</v>
       </c>
-      <c r="K4" s="56">
+      <c r="K4" s="50">
         <v>0.15</v>
       </c>
-      <c r="L4" s="56">
+      <c r="L4" s="50">
         <v>0.15</v>
       </c>
-      <c r="M4" s="56">
+      <c r="M4" s="50">
         <v>0.15</v>
       </c>
       <c r="N4" s="1"/>
@@ -2707,13 +2707,13 @@
       <c r="H6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="57" t="s">
-        <v>356</v>
-      </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="I6" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="54"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -2751,13 +2751,13 @@
       <c r="H7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="57" t="s">
-        <v>357</v>
-      </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52"/>
+      <c r="I7" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="54"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -8667,12 +8667,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -14957,13 +14957,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -21408,13 +21408,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
